--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/gitAdmin_login_data.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/gitAdmin_login_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>admin.mrs</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -29,6 +26,9 @@
   </si>
   <si>
     <t>User_Role_ED</t>
+  </si>
+  <si>
+    <t>admin.st.xavier</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,36 +373,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
